--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codebase\git\Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5294CE8B-47E2-4EEA-8D9A-78B29BF6404D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5392D190-BB7E-443D-8884-C968A0B5D27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>header</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>S.no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member </t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>xyz-blob-foo-bar</t>
   </si>
 </sst>
 </file>
@@ -345,15 +369,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>1994</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
